--- a/Excel/작업인게임경험치성장.xlsx
+++ b/Excel/작업인게임경험치성장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853CC52-53B6-4BB5-890B-A4FCAE55235C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D9F37-D62C-4A35-BB7D-66744D50E33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC6FF19E-194B-4B0C-A52C-5C42C69D99D3}"/>
   </bookViews>
@@ -643,7 +643,7 @@
             <v>SpawnFlag_12_40_0_6</v>
           </cell>
           <cell r="G7">
-            <v>9</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="8">
@@ -666,7 +666,7 @@
             <v>SpawnFlag_12_40_0_7</v>
           </cell>
           <cell r="G8">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="9">
@@ -689,7 +689,7 @@
             <v>SpawnFlag_12_40_0_8</v>
           </cell>
           <cell r="G9">
-            <v>8</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="10">
@@ -1028,7 +1028,7 @@
             <v>TutoGround_12_40_1</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Wall_12_40_0_4</v>
+            <v>Wall_0_Empty</v>
           </cell>
           <cell r="F24" t="str">
             <v>SpawnFlag_0_Angel</v>
@@ -11892,7 +11892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12291,11 +12291,11 @@
       </c>
       <c r="D7">
         <f>VLOOKUP($C7,[1]MapTable!$A:$G,MATCH([1]MapTable!$G$1,[1]MapTable!$A$1:$G$1,0),0)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f ca="1">VLOOKUP(B7,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12307,11 +12307,11 @@
 IF(NOT(ISERROR(FIND("Middle2",C7))),[2]StageExpTable!$F$9,
 IF(NOT(ISERROR(FIND("Middle3",C7))),[2]StageExpTable!$F$10,
 IF(NOT(ISERROR(FIND("Middle4",C7))),[2]StageExpTable!$F$11,0))))</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <f ca="1">VLOOKUP(H7,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12320,14 +12320,14 @@
       <c r="J7" s="1">
         <f ca="1">IFERROR((H7-VLOOKUP(I7,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I7+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.61363636363636365</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M7">
         <f ca="1">VLOOKUP(L7,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12336,7 +12336,7 @@
       <c r="N7" s="1">
         <f ca="1">IFERROR((L7-VLOOKUP(M7,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M7+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.5714285714285714</v>
+        <v>0.16326530612244897</v>
       </c>
       <c r="O7">
         <f ca="1">IF(AND(A7&lt;&gt;0,MOD(A7,7)=0),
@@ -12358,11 +12358,11 @@
       </c>
       <c r="D8">
         <f>VLOOKUP($C8,[1]MapTable!$A:$G,MATCH([1]MapTable!$G$1,[1]MapTable!$A$1:$G$1,0),0)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <f ca="1">VLOOKUP(B8,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12374,11 +12374,11 @@
 IF(NOT(ISERROR(FIND("Middle2",C8))),[2]StageExpTable!$F$9,
 IF(NOT(ISERROR(FIND("Middle3",C8))),[2]StageExpTable!$F$10,
 IF(NOT(ISERROR(FIND("Middle4",C8))),[2]StageExpTable!$F$11,0))))</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <f ca="1">VLOOKUP(H8,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12387,20 +12387,20 @@
       <c r="J8" s="1">
         <f ca="1">IFERROR((H8-VLOOKUP(I8,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I8+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.82692307692307687</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="M8">
         <f ca="1">VLOOKUP(L8,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
         <f ca="1">IFERROR((L8-VLOOKUP(M8,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M8+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.10843373493975904</v>
+        <v>0.62244897959183676</v>
       </c>
       <c r="O8">
         <f ca="1">IF(AND(A8&lt;&gt;0,MOD(A8,7)=0),
@@ -12422,11 +12422,11 @@
       </c>
       <c r="D9">
         <f>VLOOKUP($C9,[1]MapTable!$A:$G,MATCH([1]MapTable!$G$1,[1]MapTable!$A$1:$G$1,0),0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <f ca="1">VLOOKUP(B9,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12438,11 +12438,11 @@
 IF(NOT(ISERROR(FIND("Middle2",C9))),[2]StageExpTable!$F$9,
 IF(NOT(ISERROR(FIND("Middle3",C9))),[2]StageExpTable!$F$10,
 IF(NOT(ISERROR(FIND("Middle4",C9))),[2]StageExpTable!$F$11,0))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="I9">
         <f ca="1">VLOOKUP(H9,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12451,11 +12451,11 @@
       <c r="J9" s="1">
         <f ca="1">IFERROR((H9-VLOOKUP(I9,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I9+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.31632653061224492</v>
+        <v>0.11224489795918367</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M9">
         <f ca="1">VLOOKUP(L9,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12464,7 +12464,7 @@
       <c r="N9" s="1">
         <f ca="1">IFERROR((L9-VLOOKUP(M9,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M9+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.3493975903614458</v>
+        <v>0.13855421686746988</v>
       </c>
       <c r="O9">
         <f ca="1">IF(AND(A9&lt;&gt;0,MOD(A9,7)=0),
@@ -12490,7 +12490,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <f ca="1">VLOOKUP(B10,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="I10">
         <f ca="1">VLOOKUP(H10,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12515,11 +12515,11 @@
       <c r="J10" s="1">
         <f ca="1">IFERROR((H10-VLOOKUP(I10,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I10+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.72448979591836737</v>
+        <v>0.52040816326530615</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="M10">
         <f ca="1">VLOOKUP(L10,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12528,7 +12528,7 @@
       <c r="N10" s="1">
         <f ca="1">IFERROR((L10-VLOOKUP(M10,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M10+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.59036144578313254</v>
+        <v>0.37951807228915663</v>
       </c>
       <c r="O10">
         <f ca="1">IF(AND(A10&lt;&gt;0,MOD(A10,7)=0),
@@ -12554,7 +12554,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <f ca="1">VLOOKUP(B11,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="I11">
         <f ca="1">VLOOKUP(H11,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12579,20 +12579,20 @@
       <c r="J11" s="1">
         <f ca="1">IFERROR((H11-VLOOKUP(I11,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I11+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.43975903614457829</v>
+        <v>0.31927710843373491</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="M11">
         <f ca="1">VLOOKUP(L11,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">IFERROR((L11-VLOOKUP(M11,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M11+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.17204301075268819</v>
+        <v>0.98192771084337349</v>
       </c>
       <c r="O11">
         <f ca="1">IF(AND(A11&lt;&gt;0,MOD(A11,7)=0),
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <f ca="1">VLOOKUP(B12,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="I12">
         <f ca="1">VLOOKUP(H12,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12643,11 +12643,11 @@
       <c r="J12" s="1">
         <f ca="1">IFERROR((H12-VLOOKUP(I12,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I12+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.77108433734939763</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="M12">
         <f ca="1">VLOOKUP(L12,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12656,7 +12656,7 @@
       <c r="N12" s="1">
         <f ca="1">IFERROR((L12-VLOOKUP(M12,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M12+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.46774193548387094</v>
+        <v>0.27956989247311825</v>
       </c>
       <c r="O12">
         <f ca="1">IF(AND(A12&lt;&gt;0,MOD(A12,7)=0),
@@ -12682,7 +12682,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <f ca="1">VLOOKUP(B13,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="I13">
         <f ca="1">VLOOKUP(H13,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12707,11 +12707,11 @@
       <c r="J13" s="1">
         <f ca="1">IFERROR((H13-VLOOKUP(I13,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I13+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.11827956989247312</v>
+        <v>1.0752688172043012E-2</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="M13">
         <f ca="1">VLOOKUP(L13,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12720,7 +12720,7 @@
       <c r="N13" s="1">
         <f ca="1">IFERROR((L13-VLOOKUP(M13,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M13+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.79032258064516125</v>
+        <v>0.60215053763440862</v>
       </c>
       <c r="O13">
         <f ca="1">IF(AND(A13&lt;&gt;0,MOD(A13,7)=0),
@@ -12746,7 +12746,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <f ca="1">VLOOKUP(B14,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="I14">
         <f ca="1">VLOOKUP(H14,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12771,20 +12771,20 @@
       <c r="J14" s="1">
         <f ca="1">IFERROR((H14-VLOOKUP(I14,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I14+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.4946236559139785</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="M14">
         <f ca="1">VLOOKUP(L14,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" s="1">
         <f ca="1">IFERROR((L14-VLOOKUP(M14,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M14+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.15656565656565657</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="O14">
         <f ca="1">IF(AND(A14&lt;&gt;0,MOD(A14,7)=0),
@@ -12810,7 +12810,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <f ca="1">VLOOKUP(B15,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="I15">
         <f ca="1">VLOOKUP(H15,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12835,11 +12835,11 @@
       <c r="J15" s="1">
         <f ca="1">IFERROR((H15-VLOOKUP(I15,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I15+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.89784946236559138</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>700</v>
+        <v>665</v>
       </c>
       <c r="M15">
         <f ca="1">VLOOKUP(L15,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12848,7 +12848,7 @@
       <c r="N15" s="1">
         <f ca="1">IFERROR((L15-VLOOKUP(M15,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M15+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.53535353535353536</v>
+        <v>0.35858585858585856</v>
       </c>
       <c r="O15">
         <f ca="1">IF(AND(A15&lt;&gt;0,MOD(A15,7)=0),
@@ -12874,7 +12874,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <f ca="1">VLOOKUP(B16,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="I16">
         <f ca="1">VLOOKUP(H16,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12899,11 +12899,11 @@
       <c r="J16" s="1">
         <f ca="1">IFERROR((H16-VLOOKUP(I16,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I16+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.89784946236559138</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="2"/>
-        <v>700</v>
+        <v>665</v>
       </c>
       <c r="M16">
         <f ca="1">VLOOKUP(L16,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12912,7 +12912,7 @@
       <c r="N16" s="1">
         <f ca="1">IFERROR((L16-VLOOKUP(M16,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M16+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.53535353535353536</v>
+        <v>0.35858585858585856</v>
       </c>
       <c r="O16">
         <f ca="1">IF(AND(A16&lt;&gt;0,MOD(A16,7)=0),
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <f ca="1">VLOOKUP(B17,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="I17">
         <f ca="1">VLOOKUP(H17,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12963,11 +12963,11 @@
       <c r="J17" s="1">
         <f ca="1">IFERROR((H17-VLOOKUP(I17,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I17+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.30808080808080807</v>
+        <v>0.20707070707070707</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="2"/>
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="M17">
         <f ca="1">VLOOKUP(L17,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12976,7 +12976,7 @@
       <c r="N17" s="1">
         <f ca="1">IFERROR((L17-VLOOKUP(M17,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M17+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.93939393939393945</v>
+        <v>0.76262626262626265</v>
       </c>
       <c r="O17">
         <f ca="1">IF(AND(A17&lt;&gt;0,MOD(A17,7)=0),
@@ -13002,7 +13002,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F18">
         <f ca="1">VLOOKUP(B18,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="I18">
         <f ca="1">VLOOKUP(H18,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13027,11 +13027,11 @@
       <c r="J18" s="1">
         <f ca="1">IFERROR((H18-VLOOKUP(I18,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I18+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.76262626262626265</v>
+        <v>0.66161616161616166</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="M18">
         <f ca="1">VLOOKUP(L18,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13040,7 +13040,7 @@
       <c r="N18" s="1">
         <f ca="1">IFERROR((L18-VLOOKUP(M18,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M18+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.29657794676806082</v>
+        <v>0.1634980988593156</v>
       </c>
       <c r="O18">
         <f ca="1">IF(AND(A18&lt;&gt;0,MOD(A18,7)=0),
@@ -13066,7 +13066,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F19">
         <f ca="1">VLOOKUP(B19,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="I19">
         <f ca="1">VLOOKUP(H19,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13091,11 +13091,11 @@
       <c r="J19" s="1">
         <f ca="1">IFERROR((H19-VLOOKUP(I19,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I19+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.20152091254752852</v>
+        <v>0.12547528517110265</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>970</v>
+        <v>935</v>
       </c>
       <c r="M19">
         <f ca="1">VLOOKUP(L19,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13104,7 +13104,7 @@
       <c r="N19" s="1">
         <f ca="1">IFERROR((L19-VLOOKUP(M19,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M19+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.67680608365019013</v>
+        <v>0.54372623574144485</v>
       </c>
       <c r="O19">
         <f ca="1">IF(AND(A19&lt;&gt;0,MOD(A19,7)=0),
@@ -13130,7 +13130,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F20">
         <f ca="1">VLOOKUP(B20,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="I20">
         <f ca="1">VLOOKUP(H20,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13155,10 +13155,10 @@
       <c r="J20" s="1">
         <f ca="1">IFERROR((H20-VLOOKUP(I20,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I20+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.58174904942965777</v>
+        <v>0.50570342205323193</v>
       </c>
       <c r="K20">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F21">
         <f ca="1">VLOOKUP(B21,[2]StageExpTable!$H:$K,MATCH([2]StageExpTable!$K$1,[2]StageExpTable!$H$1:$K$1,0),0)</f>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="I21">
         <f ca="1">VLOOKUP(H21,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -13222,7 +13222,7 @@
       <c r="J21" s="1">
         <f ca="1">IFERROR((H21-VLOOKUP(I21,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I21+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.58174904942965777</v>
+        <v>0.50570342205323193</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="2"/>

--- a/Excel/작업인게임경험치성장.xlsx
+++ b/Excel/작업인게임경험치성장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D9F37-D62C-4A35-BB7D-66744D50E33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB325F3-70BA-4349-B23B-C7D360871710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC6FF19E-194B-4B0C-A52C-5C42C69D99D3}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
             <v>22</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Plane_12_40_1_3</v>
+            <v>Plane_12_40_1_2</v>
           </cell>
           <cell r="D25" t="str">
             <v>Ground_12_40_1</v>
@@ -11892,7 +11892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12517,9 +12517,12 @@
 /VLOOKUP(I10+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
         <v>0.52040816326530615</v>
       </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M10">
         <f ca="1">VLOOKUP(L10,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12528,7 +12531,7 @@
       <c r="N10" s="1">
         <f ca="1">IFERROR((L10-VLOOKUP(M10,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M10+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.37951807228915663</v>
+        <v>0.43975903614457829</v>
       </c>
       <c r="O10">
         <f ca="1">IF(AND(A10&lt;&gt;0,MOD(A10,7)=0),
@@ -12583,16 +12586,16 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M11">
         <f ca="1">VLOOKUP(L11,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">IFERROR((L11-VLOOKUP(M11,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M11+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.98192771084337349</v>
+        <v>3.7634408602150539E-2</v>
       </c>
       <c r="O11">
         <f ca="1">IF(AND(A11&lt;&gt;0,MOD(A11,7)=0),
@@ -12645,9 +12648,12 @@
 /VLOOKUP(I12+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
         <v>0.6506024096385542</v>
       </c>
+      <c r="K12">
+        <v>-5</v>
+      </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M12">
         <f ca="1">VLOOKUP(L12,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12656,7 +12662,7 @@
       <c r="N12" s="1">
         <f ca="1">IFERROR((L12-VLOOKUP(M12,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M12+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.27956989247311825</v>
+        <v>0.30645161290322581</v>
       </c>
       <c r="O12">
         <f ca="1">IF(AND(A12&lt;&gt;0,MOD(A12,7)=0),
@@ -12709,9 +12715,12 @@
 /VLOOKUP(I13+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
         <v>1.0752688172043012E-2</v>
       </c>
+      <c r="K13">
+        <v>-10</v>
+      </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M13">
         <f ca="1">VLOOKUP(L13,[2]StageExpTable!$C:$D,MATCH([2]StageExpTable!$D$1,[2]StageExpTable!$C$1:$D$1,0),1)</f>
@@ -12720,7 +12729,7 @@
       <c r="N13" s="1">
         <f ca="1">IFERROR((L13-VLOOKUP(M13,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(M13+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
-        <v>0.60215053763440862</v>
+        <v>0.57526881720430112</v>
       </c>
       <c r="O13">
         <f ca="1">IF(AND(A13&lt;&gt;0,MOD(A13,7)=0),
@@ -12772,6 +12781,9 @@
         <f ca="1">IFERROR((H14-VLOOKUP(I14,[2]StageExpTable!$A:$C,MATCH([2]StageExpTable!$C$1,[2]StageExpTable!$A$1:$C$1,0),0))
 /VLOOKUP(I14+1,[2]StageExpTable!$A:$B,MATCH([2]StageExpTable!$B$1,[2]StageExpTable!$A$1:$B$1,0),0),"Max")</f>
         <v>0.38709677419354838</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
